--- a/pokemonGame/src/excelFiles/game_history.xlsx
+++ b/pokemonGame/src/excelFiles/game_history.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="110">
   <si>
     <t>ID</t>
   </si>
@@ -157,6 +157,204 @@
   </si>
   <si>
     <t>74m4s</t>
+  </si>
+  <si>
+    <t>06-05-2023 18:34:55</t>
+  </si>
+  <si>
+    <t>1m19s</t>
+  </si>
+  <si>
+    <t>06-05-2023 18:36:55</t>
+  </si>
+  <si>
+    <t>42s</t>
+  </si>
+  <si>
+    <t>06-05-2023 18:43:56</t>
+  </si>
+  <si>
+    <t>06-05-2023 19:14:44</t>
+  </si>
+  <si>
+    <t>38m20s</t>
+  </si>
+  <si>
+    <t>06-05-2023 19:56:13</t>
+  </si>
+  <si>
+    <t>06-05-2023 19:56:44</t>
+  </si>
+  <si>
+    <t>5s</t>
+  </si>
+  <si>
+    <t>06-05-2023 19:56:56</t>
+  </si>
+  <si>
+    <t>06-05-2023 19:57:30</t>
+  </si>
+  <si>
+    <t>06-05-2023 19:57:37</t>
+  </si>
+  <si>
+    <t>06-05-2023 20:02:39</t>
+  </si>
+  <si>
+    <t>06-05-2023 20:02:50</t>
+  </si>
+  <si>
+    <t>12s</t>
+  </si>
+  <si>
+    <t>06-05-2023 20:03:07</t>
+  </si>
+  <si>
+    <t>06-05-2023 20:03:21</t>
+  </si>
+  <si>
+    <t>15s</t>
+  </si>
+  <si>
+    <t>06-05-2023 20:03:37</t>
+  </si>
+  <si>
+    <t>06-05-2023 20:03:47</t>
+  </si>
+  <si>
+    <t>4s</t>
+  </si>
+  <si>
+    <t>06-05-2023 20:03:52</t>
+  </si>
+  <si>
+    <t>06-05-2023 20:04:09</t>
+  </si>
+  <si>
+    <t>31s</t>
+  </si>
+  <si>
+    <t>06-05-2023 20:04:54</t>
+  </si>
+  <si>
+    <t>1m40s</t>
+  </si>
+  <si>
+    <t>06-05-2023 20:17:40</t>
+  </si>
+  <si>
+    <t>2m17s</t>
+  </si>
+  <si>
+    <t>06-05-2023 20:21:43</t>
+  </si>
+  <si>
+    <t>22m54s</t>
+  </si>
+  <si>
+    <t>07-05-2023 04:56:26</t>
+  </si>
+  <si>
+    <t>07-05-2023 04:58:31</t>
+  </si>
+  <si>
+    <t>07-05-2023 04:58:38</t>
+  </si>
+  <si>
+    <t>07-05-2023 04:59:09</t>
+  </si>
+  <si>
+    <t>2s</t>
+  </si>
+  <si>
+    <t>07-05-2023 05:06:40</t>
+  </si>
+  <si>
+    <t>07-05-2023 05:08:56</t>
+  </si>
+  <si>
+    <t>07-05-2023 05:09:03</t>
+  </si>
+  <si>
+    <t>07-05-2023 05:13:03</t>
+  </si>
+  <si>
+    <t>16m28s</t>
+  </si>
+  <si>
+    <t>07-05-2023 05:29:35</t>
+  </si>
+  <si>
+    <t>24m39s</t>
+  </si>
+  <si>
+    <t>07-05-2023 05:55:10</t>
+  </si>
+  <si>
+    <t>07-05-2023 05:58:48</t>
+  </si>
+  <si>
+    <t>07-05-2023 05:59:26</t>
+  </si>
+  <si>
+    <t>22s</t>
+  </si>
+  <si>
+    <t>07-05-2023 06:00:00</t>
+  </si>
+  <si>
+    <t>07-05-2023 06:00:07</t>
+  </si>
+  <si>
+    <t>08-05-2023 04:19:19</t>
+  </si>
+  <si>
+    <t>08-05-2023 04:19:35</t>
+  </si>
+  <si>
+    <t>08-05-2023 04:19:41</t>
+  </si>
+  <si>
+    <t>08-05-2023 04:19:51</t>
+  </si>
+  <si>
+    <t>10s</t>
+  </si>
+  <si>
+    <t>08-05-2023 04:20:05</t>
+  </si>
+  <si>
+    <t>08-05-2023 04:20:10</t>
+  </si>
+  <si>
+    <t>08-05-2023 04:20:39</t>
+  </si>
+  <si>
+    <t>08-05-2023 04:20:57</t>
+  </si>
+  <si>
+    <t>08-05-2023 04:21:03</t>
+  </si>
+  <si>
+    <t>08-05-2023 04:21:21</t>
+  </si>
+  <si>
+    <t>08-05-2023 04:21:26</t>
+  </si>
+  <si>
+    <t>08-05-2023 04:21:32</t>
+  </si>
+  <si>
+    <t>08-05-2023 04:21:44</t>
+  </si>
+  <si>
+    <t>1m51s</t>
+  </si>
+  <si>
+    <t>08-05-2023 04:23:50</t>
+  </si>
+  <si>
+    <t>8m15s</t>
   </si>
 </sst>
 </file>
@@ -475,7 +673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I4" sqref="A2:I4"/>
@@ -523,28 +721,28 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>25569.333854756944</v>
+        <v>25569.333629270834</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>25569.333854756944</v>
+        <v>25569.333629270834</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="I2" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -552,13 +750,13 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>25569.333854756944</v>
+        <v>25569.333629270834</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>25569.333854756944</v>
+        <v>25569.333629270834</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="E3" t="n" s="0">
         <v>3.0</v>
@@ -587,22 +785,22 @@
         <v>25569.333629270834</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>21.0</v>
+        <v>8.0</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G4" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="I4" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -616,22 +814,22 @@
         <v>25569.333629270834</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>32.0</v>
+        <v>10.0</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>2000.0</v>
+        <v>0.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="I5" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -645,22 +843,22 @@
         <v>25569.333629270834</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>86.0</v>
+        <v>3.0</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>2000.0</v>
+        <v>0.0</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="I6" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,25 +866,25 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>25569.333854756944</v>
+        <v>25569.333629270834</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>25569.333854756944</v>
+        <v>25569.333629270834</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I7" t="b" s="0">
         <v>0</v>
@@ -697,19 +895,19 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>45051.83280270833</v>
+        <v>25569.333629270834</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>45051.83367241898</v>
+        <v>25569.333629270834</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>75.0</v>
+        <v>13.0</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="G8" t="n" s="0">
         <v>0.0</v>
@@ -718,7 +916,7 @@
         <v>5.0</v>
       </c>
       <c r="I8" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -726,27 +924,375 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>45051.83369349537</v>
+        <v>25569.333629270834</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>45051.88513587963</v>
+        <v>25569.333629270834</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>4444.0</v>
+        <v>31.0</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>2600.0</v>
+        <v>0.0</v>
       </c>
       <c r="H9" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="I9" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>25569.333629270834</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>25569.333629270834</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>4100.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="I10" t="b" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>25569.333629270834</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>25569.333629270834</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>1374.0</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>66400.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="I11" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>25569.333629270834</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>25569.333629270834</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>137.0</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>10600.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="I9" t="b" s="0">
+      <c r="I12" t="b" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>25569.333629270834</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>25569.333629270834</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>1600.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I13" t="b" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>25569.333629270834</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>25569.333629270834</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="I14" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>25569.33385479167</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>25569.33385479167</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I15" t="b" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>25569.33385479167</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>25569.33385479167</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="I16" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="n" s="0">
+        <v>45054.18149791667</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>45054.181540844904</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="E17" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="G17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H17" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I17" t="b" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="n" s="0">
+        <v>45054.181557372685</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>45054.181605868056</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="E18" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="G18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H18" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="I18" t="b" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="n" s="0">
+        <v>45054.181626805555</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>45054.1817391088</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="E19" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="G19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H19" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="I19" t="b" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="n" s="0">
+        <v>45054.18175996528</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>45054.18305309028</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="E20" t="n" s="0">
+        <v>111.0</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="G20" t="n" s="0">
+        <v>2300.0</v>
+      </c>
+      <c r="H20" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I20" t="b" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="n" s="0">
+        <v>45054.183217592596</v>
+      </c>
+      <c r="C21" t="n" s="0">
+        <v>45054.18895736111</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="E21" t="n" s="0">
+        <v>495.0</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="G21" t="n" s="0">
+        <v>10800.0</v>
+      </c>
+      <c r="H21" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="I21" t="b" s="0">
         <v>0</v>
       </c>
     </row>

--- a/pokemonGame/src/excelFiles/game_history.xlsx
+++ b/pokemonGame/src/excelFiles/game_history.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\pokemon-onet-connect\pokemonGame\src\excelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C0DDF7-F1FA-4D1B-895B-3C4C85B65CEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2610126-217E-4214-9466-01FABE937E10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21060" yWindow="5055" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -54,307 +54,73 @@
     <t>Thời gian bắt đầu (string)</t>
   </si>
   <si>
-    <t>05-05-2023 19:30:37</t>
-  </si>
-  <si>
-    <t>6s</t>
-  </si>
-  <si>
-    <t>05-05-2023 19:30:45</t>
+    <t>8s</t>
+  </si>
+  <si>
+    <t>3s</t>
+  </si>
+  <si>
+    <t>06-05-2023 20:04:54</t>
+  </si>
+  <si>
+    <t>1m40s</t>
+  </si>
+  <si>
+    <t>2m17s</t>
+  </si>
+  <si>
+    <t>06-05-2023 20:21:43</t>
+  </si>
+  <si>
+    <t>22m54s</t>
+  </si>
+  <si>
+    <t>07-05-2023 05:55:10</t>
+  </si>
+  <si>
+    <t>07-05-2023 05:59:26</t>
+  </si>
+  <si>
+    <t>22s</t>
+  </si>
+  <si>
+    <t>08-05-2023 04:19:35</t>
+  </si>
+  <si>
+    <t>08-05-2023 04:19:41</t>
+  </si>
+  <si>
+    <t>08-05-2023 04:20:05</t>
+  </si>
+  <si>
+    <t>08-05-2023 04:20:10</t>
+  </si>
+  <si>
+    <t>08-05-2023 04:21:44</t>
+  </si>
+  <si>
+    <t>1m51s</t>
+  </si>
+  <si>
+    <t>08-05-2023 04:23:50</t>
+  </si>
+  <si>
+    <t>8m15s</t>
+  </si>
+  <si>
+    <t>09-05-2023 14:45:04</t>
+  </si>
+  <si>
+    <t>1m0s</t>
+  </si>
+  <si>
+    <t>09-05-2023 14:49:37</t>
   </si>
   <si>
     <t>11s</t>
   </si>
   <si>
-    <t>05-05-2023 19:31:24</t>
-  </si>
-  <si>
-    <t>13s</t>
-  </si>
-  <si>
-    <t>05-05-2023 19:31:38</t>
-  </si>
-  <si>
-    <t>32s</t>
-  </si>
-  <si>
-    <t>05-05-2023 19:44:42</t>
-  </si>
-  <si>
-    <t>16s</t>
-  </si>
-  <si>
-    <t>05-05-2023 19:45:02</t>
-  </si>
-  <si>
-    <t>9s</t>
-  </si>
-  <si>
-    <t>05-05-2023 19:46:19</t>
-  </si>
-  <si>
-    <t>05-05-2023 19:46:38</t>
-  </si>
-  <si>
-    <t>19s</t>
-  </si>
-  <si>
-    <t>26s</t>
-  </si>
-  <si>
-    <t>05-05-2023 19:49:59</t>
-  </si>
-  <si>
-    <t>05-05-2023 19:50:20</t>
-  </si>
-  <si>
-    <t>24s</t>
-  </si>
-  <si>
-    <t>05-05-2023 19:50:48</t>
-  </si>
-  <si>
-    <t>21s</t>
-  </si>
-  <si>
-    <t>05-05-2023 19:51:14</t>
-  </si>
-  <si>
-    <t>1m26s</t>
-  </si>
-  <si>
-    <t>05-05-2023 19:53:03</t>
-  </si>
-  <si>
-    <t>8s</t>
-  </si>
-  <si>
-    <t>05-05-2023 19:54:25</t>
-  </si>
-  <si>
-    <t>7s</t>
-  </si>
-  <si>
-    <t>05-05-2023 19:58:18</t>
-  </si>
-  <si>
-    <t>05-05-2023 19:58:53</t>
-  </si>
-  <si>
-    <t>05-05-2023 19:59:03</t>
-  </si>
-  <si>
-    <t>3s</t>
-  </si>
-  <si>
-    <t>05-05-2023 19:59:14</t>
-  </si>
-  <si>
-    <t>1m15s</t>
-  </si>
-  <si>
-    <t>05-05-2023 20:00:31</t>
-  </si>
-  <si>
-    <t>74m4s</t>
-  </si>
-  <si>
-    <t>06-05-2023 18:34:55</t>
-  </si>
-  <si>
-    <t>1m19s</t>
-  </si>
-  <si>
-    <t>06-05-2023 18:36:55</t>
-  </si>
-  <si>
-    <t>42s</t>
-  </si>
-  <si>
-    <t>06-05-2023 18:43:56</t>
-  </si>
-  <si>
-    <t>06-05-2023 19:14:44</t>
-  </si>
-  <si>
-    <t>38m20s</t>
-  </si>
-  <si>
-    <t>06-05-2023 19:56:13</t>
-  </si>
-  <si>
-    <t>06-05-2023 19:56:44</t>
-  </si>
-  <si>
-    <t>5s</t>
-  </si>
-  <si>
-    <t>06-05-2023 19:56:56</t>
-  </si>
-  <si>
-    <t>06-05-2023 19:57:30</t>
-  </si>
-  <si>
-    <t>06-05-2023 19:57:37</t>
-  </si>
-  <si>
-    <t>06-05-2023 20:02:39</t>
-  </si>
-  <si>
-    <t>06-05-2023 20:02:50</t>
-  </si>
-  <si>
-    <t>12s</t>
-  </si>
-  <si>
-    <t>06-05-2023 20:03:07</t>
-  </si>
-  <si>
-    <t>06-05-2023 20:03:21</t>
-  </si>
-  <si>
-    <t>15s</t>
-  </si>
-  <si>
-    <t>06-05-2023 20:03:37</t>
-  </si>
-  <si>
-    <t>06-05-2023 20:03:47</t>
-  </si>
-  <si>
-    <t>4s</t>
-  </si>
-  <si>
-    <t>06-05-2023 20:03:52</t>
-  </si>
-  <si>
-    <t>06-05-2023 20:04:09</t>
-  </si>
-  <si>
-    <t>31s</t>
-  </si>
-  <si>
-    <t>06-05-2023 20:04:54</t>
-  </si>
-  <si>
-    <t>1m40s</t>
-  </si>
-  <si>
-    <t>06-05-2023 20:17:40</t>
-  </si>
-  <si>
-    <t>2m17s</t>
-  </si>
-  <si>
-    <t>06-05-2023 20:21:43</t>
-  </si>
-  <si>
-    <t>22m54s</t>
-  </si>
-  <si>
-    <t>07-05-2023 04:56:26</t>
-  </si>
-  <si>
-    <t>07-05-2023 04:58:31</t>
-  </si>
-  <si>
-    <t>07-05-2023 04:58:38</t>
-  </si>
-  <si>
-    <t>07-05-2023 04:59:09</t>
-  </si>
-  <si>
-    <t>2s</t>
-  </si>
-  <si>
-    <t>07-05-2023 05:06:40</t>
-  </si>
-  <si>
-    <t>07-05-2023 05:08:56</t>
-  </si>
-  <si>
-    <t>07-05-2023 05:09:03</t>
-  </si>
-  <si>
-    <t>07-05-2023 05:13:03</t>
-  </si>
-  <si>
-    <t>16m28s</t>
-  </si>
-  <si>
-    <t>07-05-2023 05:29:35</t>
-  </si>
-  <si>
-    <t>24m39s</t>
-  </si>
-  <si>
-    <t>07-05-2023 05:55:10</t>
-  </si>
-  <si>
-    <t>07-05-2023 05:58:48</t>
-  </si>
-  <si>
-    <t>07-05-2023 05:59:26</t>
-  </si>
-  <si>
-    <t>22s</t>
-  </si>
-  <si>
-    <t>07-05-2023 06:00:00</t>
-  </si>
-  <si>
-    <t>07-05-2023 06:00:07</t>
-  </si>
-  <si>
-    <t>08-05-2023 04:19:19</t>
-  </si>
-  <si>
-    <t>08-05-2023 04:19:35</t>
-  </si>
-  <si>
-    <t>08-05-2023 04:19:41</t>
-  </si>
-  <si>
-    <t>08-05-2023 04:19:51</t>
-  </si>
-  <si>
-    <t>10s</t>
-  </si>
-  <si>
-    <t>08-05-2023 04:20:05</t>
-  </si>
-  <si>
-    <t>08-05-2023 04:20:10</t>
-  </si>
-  <si>
-    <t>08-05-2023 04:20:39</t>
-  </si>
-  <si>
-    <t>08-05-2023 04:20:57</t>
-  </si>
-  <si>
-    <t>08-05-2023 04:21:03</t>
-  </si>
-  <si>
-    <t>08-05-2023 04:21:21</t>
-  </si>
-  <si>
-    <t>08-05-2023 04:21:26</t>
-  </si>
-  <si>
-    <t>08-05-2023 04:21:32</t>
-  </si>
-  <si>
-    <t>08-05-2023 04:21:44</t>
-  </si>
-  <si>
-    <t>1m51s</t>
-  </si>
-  <si>
-    <t>08-05-2023 04:23:50</t>
-  </si>
-  <si>
-    <t>8m15s</t>
+    <t>11-05-2023 15:19:28</t>
   </si>
 </sst>
 </file>
@@ -673,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="A2:I4"/>
+      <selection activeCell="I5" sqref="A5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -727,22 +493,22 @@
         <v>25569.333629270834</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>11.0</v>
+        <v>60.0</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>0.0</v>
+        <v>2800.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="I2" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,13 +522,13 @@
         <v>25569.333629270834</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="E3" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n" s="0">
         <v>0.0</v>
@@ -785,13 +551,13 @@
         <v>25569.333629270834</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n" s="0">
         <v>8.0</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n" s="0">
         <v>0.0</v>
@@ -814,22 +580,22 @@
         <v>25569.333629270834</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="I5" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -843,19 +609,19 @@
         <v>25569.333629270834</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I6" t="b" s="0">
         <v>0</v>
@@ -872,19 +638,19 @@
         <v>25569.333629270834</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>8.0</v>
+        <v>100.0</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>0.0</v>
+        <v>4100.0</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="I7" t="b" s="0">
         <v>0</v>
@@ -901,16 +667,16 @@
         <v>25569.333629270834</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>13.0</v>
+        <v>1374.0</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>0.0</v>
+        <v>66400.0</v>
       </c>
       <c r="H8" t="n" s="0">
         <v>5.0</v>
@@ -930,22 +696,22 @@
         <v>25569.333629270834</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>31.0</v>
+        <v>137.0</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>0.0</v>
+        <v>10600.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="I9" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -959,19 +725,19 @@
         <v>25569.333629270834</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>100.0</v>
+        <v>22.0</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>4100.0</v>
+        <v>1600.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I10" t="b" s="0">
         <v>0</v>
@@ -988,22 +754,22 @@
         <v>25569.333629270834</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>1374.0</v>
+        <v>111.0</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>66400.0</v>
+        <v>2300.0</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="I11" t="b" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1017,19 +783,19 @@
         <v>25569.333629270834</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>137.0</v>
+        <v>495.0</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="G12" t="n" s="0">
-        <v>10600.0</v>
+        <v>10800.0</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I12" t="b" s="0">
         <v>0</v>
@@ -1040,22 +806,22 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>25569.333629270834</v>
+        <v>25569.33385480324</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>25569.333629270834</v>
+        <v>25569.33385480324</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="G13" t="n" s="0">
-        <v>1600.0</v>
+        <v>600.0</v>
       </c>
       <c r="H13" t="n" s="0">
         <v>1.0</v>
@@ -1069,19 +835,19 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>25569.333629270834</v>
+        <v>45057.63852113426</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>25569.333629270834</v>
+        <v>45057.638654016206</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G14" t="n" s="0">
         <v>0.0</v>
@@ -1090,209 +856,6 @@
         <v>5.0</v>
       </c>
       <c r="I14" t="b" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="B15" t="n" s="0">
-        <v>25569.33385479167</v>
-      </c>
-      <c r="C15" t="n" s="0">
-        <v>25569.33385479167</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>101</v>
-      </c>
-      <c r="E15" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="G15" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H15" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="I15" t="b" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="B16" t="n" s="0">
-        <v>25569.33385479167</v>
-      </c>
-      <c r="C16" t="n" s="0">
-        <v>25569.33385479167</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>102</v>
-      </c>
-      <c r="E16" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="F16" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="G16" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H16" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="I16" t="b" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="B17" t="n" s="0">
-        <v>45054.18149791667</v>
-      </c>
-      <c r="C17" t="n" s="0">
-        <v>45054.181540844904</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>103</v>
-      </c>
-      <c r="E17" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="F17" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="G17" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H17" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="I17" t="b" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="B18" t="n" s="0">
-        <v>45054.181557372685</v>
-      </c>
-      <c r="C18" t="n" s="0">
-        <v>45054.181605868056</v>
-      </c>
-      <c r="D18" t="s" s="0">
-        <v>104</v>
-      </c>
-      <c r="E18" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="F18" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="G18" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H18" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="I18" t="b" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="B19" t="n" s="0">
-        <v>45054.181626805555</v>
-      </c>
-      <c r="C19" t="n" s="0">
-        <v>45054.1817391088</v>
-      </c>
-      <c r="D19" t="s" s="0">
-        <v>105</v>
-      </c>
-      <c r="E19" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="F19" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="G19" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="H19" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="I19" t="b" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n" s="0">
-        <v>19.0</v>
-      </c>
-      <c r="B20" t="n" s="0">
-        <v>45054.18175996528</v>
-      </c>
-      <c r="C20" t="n" s="0">
-        <v>45054.18305309028</v>
-      </c>
-      <c r="D20" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="E20" t="n" s="0">
-        <v>111.0</v>
-      </c>
-      <c r="F20" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="G20" t="n" s="0">
-        <v>2300.0</v>
-      </c>
-      <c r="H20" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="I20" t="b" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="B21" t="n" s="0">
-        <v>45054.183217592596</v>
-      </c>
-      <c r="C21" t="n" s="0">
-        <v>45054.18895736111</v>
-      </c>
-      <c r="D21" t="s" s="0">
-        <v>108</v>
-      </c>
-      <c r="E21" t="n" s="0">
-        <v>495.0</v>
-      </c>
-      <c r="F21" t="s" s="0">
-        <v>109</v>
-      </c>
-      <c r="G21" t="n" s="0">
-        <v>10800.0</v>
-      </c>
-      <c r="H21" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="I21" t="b" s="0">
         <v>0</v>
       </c>
     </row>
